--- a/Tablas de Precision.xlsx
+++ b/Tablas de Precision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicen\Desktop\trabajo_ia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0AB9FA-D22E-4DCE-B3B0-5369D313F0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523CB44-649F-4FB9-BD4D-29E07D776AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{708DF960-73EC-4FC8-9583-9683357BDC6B}"/>
   </bookViews>
@@ -192,14 +192,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,13 +526,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -574,7 +574,7 @@
         <f>(B3+E3)/(SUM(B3:E3))</f>
         <v>0.96969696969696972</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f>G3</f>
         <v>0.96969696969696972</v>
       </c>
@@ -599,7 +599,7 @@
         <f t="shared" ref="G4:G21" si="0">(B4+E4)/(SUM(B4:E4))</f>
         <v>0.96950019677292409</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H21" si="1">G4</f>
         <v>0.96950019677292409</v>
       </c>
@@ -624,7 +624,7 @@
         <f t="shared" si="0"/>
         <v>0.96989374262101535</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0.96989374262101535</v>
       </c>
@@ -649,7 +649,7 @@
         <f t="shared" si="0"/>
         <v>0.96989374262101535</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0.96989374262101535</v>
       </c>
@@ -674,7 +674,7 @@
         <f t="shared" si="0"/>
         <v>0.97009051554506098</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>0.97009051554506098</v>
       </c>
@@ -699,7 +699,7 @@
         <f t="shared" si="0"/>
         <v>0.97304210940574576</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>0.97304210940574576</v>
       </c>
@@ -724,7 +724,7 @@
         <f t="shared" si="0"/>
         <v>0.97382920110192839</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>0.97382920110192839</v>
       </c>
@@ -749,7 +749,7 @@
         <f t="shared" si="0"/>
         <v>0.97402597402597402</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0.97402597402597402</v>
       </c>
@@ -774,7 +774,7 @@
         <f t="shared" si="0"/>
         <v>0.97402597402597402</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>0.97402597402597402</v>
       </c>
@@ -799,7 +799,7 @@
         <f t="shared" si="0"/>
         <v>0.97422274695001965</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>0.97422274695001965</v>
       </c>
@@ -824,7 +824,7 @@
         <f t="shared" si="0"/>
         <v>0.97500983864620228</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>0.97500983864620228</v>
       </c>
@@ -849,7 +849,7 @@
         <f t="shared" si="0"/>
         <v>0.97599370326643053</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>0.97599370326643053</v>
       </c>
@@ -874,7 +874,7 @@
         <f t="shared" si="0"/>
         <v>0.97599370326643053</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>0.97599370326643053</v>
       </c>
@@ -899,7 +899,7 @@
         <f t="shared" si="0"/>
         <v>0.97638724911452179</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>0.97638724911452179</v>
       </c>
@@ -924,7 +924,7 @@
         <f t="shared" si="0"/>
         <v>0.97678079496261316</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>0.97678079496261316</v>
       </c>
@@ -949,7 +949,7 @@
         <f t="shared" si="0"/>
         <v>0.97776465958284142</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>0.97776465958284142</v>
       </c>
@@ -974,7 +974,7 @@
         <f t="shared" si="0"/>
         <v>0.97756788665879579</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>0.97756788665879579</v>
       </c>
@@ -999,7 +999,7 @@
         <f t="shared" si="0"/>
         <v>0.97776465958284142</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>0.97776465958284142</v>
       </c>
@@ -1024,7 +1024,7 @@
         <f t="shared" si="0"/>
         <v>0.97796143250688705</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>0.97796143250688705</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <f>MAX(H3:H21)</f>
         <v>0.97796143250688705</v>
       </c>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,13 +1070,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1118,7 +1118,7 @@
         <f>(B3+E3)/(SUM(B3:E3))</f>
         <v>0.9559228650137741</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f>G3</f>
         <v>0.9559228650137741</v>
       </c>
@@ -1143,7 +1143,7 @@
         <f t="shared" ref="G4:G21" si="0">(B4+E4)/(SUM(B4:E4))</f>
         <v>0.95474222746950022</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H21" si="1">G4</f>
         <v>0.95474222746950022</v>
       </c>
@@ -1168,7 +1168,7 @@
         <f t="shared" si="0"/>
         <v>0.95356158992522633</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0.95356158992522633</v>
       </c>
@@ -1193,7 +1193,7 @@
         <f t="shared" si="0"/>
         <v>0.95316804407713496</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0.95316804407713496</v>
       </c>
@@ -1218,7 +1218,7 @@
         <f t="shared" si="0"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>0.95238095238095233</v>
       </c>
@@ -1243,7 +1243,7 @@
         <f t="shared" si="0"/>
         <v>0.95100354191263281</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>0.95100354191263281</v>
       </c>
@@ -1268,7 +1268,7 @@
         <f t="shared" si="0"/>
         <v>0.95041322314049592</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>0.95041322314049592</v>
       </c>
@@ -1293,7 +1293,7 @@
         <f t="shared" si="0"/>
         <v>0.95001967729240455</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0.95001967729240455</v>
       </c>
@@ -1318,7 +1318,7 @@
         <f t="shared" si="0"/>
         <v>0.94942935852026766</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>0.94942935852026766</v>
       </c>
@@ -1343,7 +1343,7 @@
         <f t="shared" si="0"/>
         <v>0.94883903974813066</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>0.94883903974813066</v>
       </c>
@@ -1368,7 +1368,7 @@
         <f t="shared" si="0"/>
         <v>0.94883903974813066</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>0.94883903974813066</v>
       </c>
@@ -1393,7 +1393,7 @@
         <f t="shared" si="0"/>
         <v>0.94864226682408503</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>0.94864226682408503</v>
       </c>
@@ -1418,7 +1418,7 @@
         <f t="shared" si="0"/>
         <v>0.94805194805194803</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>0.94805194805194803</v>
       </c>
@@ -1443,7 +1443,7 @@
         <f t="shared" si="0"/>
         <v>0.94785517512790241</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>0.94785517512790241</v>
       </c>
@@ -1453,24 +1453,24 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2285</v>
+        <v>2175</v>
       </c>
       <c r="C17">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E17">
-        <v>2679</v>
+        <v>2642</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.97678079496261316</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.97678079496261316</v>
+        <v>0.94785517512790241</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94785517512790241</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <f t="shared" si="0"/>
         <v>0.94765840220385678</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>0.94765840220385678</v>
       </c>
@@ -1518,7 +1518,7 @@
         <f t="shared" si="0"/>
         <v>0.94746162927981115</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>0.94746162927981115</v>
       </c>
@@ -1543,7 +1543,7 @@
         <f t="shared" si="0"/>
         <v>0.94706808343171978</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>0.94706808343171978</v>
       </c>
@@ -1568,7 +1568,7 @@
         <f t="shared" si="0"/>
         <v>0.94687131050767415</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>0.94687131050767415</v>
       </c>
@@ -1577,9 +1577,9 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <f>MAX(H3:H21)</f>
-        <v>0.97678079496261316</v>
+        <v>0.9559228650137741</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>26</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="A1:H15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,13 +1612,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1660,7 +1660,7 @@
         <f>(B3+E3)/(SUM(B3:E3))</f>
         <v>0.99035812672176304</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f>G3</f>
         <v>0.99035812672176304</v>
       </c>
@@ -1685,7 +1685,7 @@
         <f t="shared" ref="G4:G12" si="0">(B4+E4)/(SUM(B4:E4))</f>
         <v>0.98898071625344353</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H12" si="1">G4</f>
         <v>0.98898071625344353</v>
       </c>
@@ -1710,7 +1710,7 @@
         <f t="shared" si="0"/>
         <v>0.98780007870916964</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0.98780007870916964</v>
       </c>
@@ -1735,7 +1735,7 @@
         <f t="shared" si="0"/>
         <v>0.98858717040535227</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0.98858717040535227</v>
       </c>
@@ -1760,7 +1760,7 @@
         <f t="shared" si="0"/>
         <v>0.98760330578512401</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>0.98760330578512401</v>
       </c>
@@ -1785,7 +1785,7 @@
         <f t="shared" si="0"/>
         <v>0.98780007870916964</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>0.98780007870916964</v>
       </c>
@@ -1810,7 +1810,7 @@
         <f t="shared" si="0"/>
         <v>0.98602912239275875</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>0.98602912239275875</v>
       </c>
@@ -1835,7 +1835,7 @@
         <f t="shared" si="0"/>
         <v>0.98642266824085001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0.98642266824085001</v>
       </c>
@@ -1860,7 +1860,7 @@
         <f t="shared" si="0"/>
         <v>0.98622589531680438</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>0.98622589531680438</v>
       </c>
@@ -1885,19 +1885,19 @@
         <f t="shared" si="0"/>
         <v>0.98661944116489575</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>0.98661944116489575</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H13" s="5"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f>MAX(H3:H12)</f>
         <v>0.99035812672176304</v>
       </c>
@@ -1906,30 +1906,30 @@
       <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="5"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="5"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="5"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="5"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="5"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="5"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="5"/>
+      <c r="H23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1954,13 +1954,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2002,7 +2002,7 @@
         <f>(B3+E3)/(SUM(B3:E3))</f>
         <v>0.95789059425423062</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f>G3</f>
         <v>0.95789059425423062</v>
       </c>
@@ -2027,7 +2027,7 @@
         <f t="shared" ref="G4:G12" si="0">(B4+E4)/(SUM(B4:E4))</f>
         <v>0.95552931916568284</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H12" si="1">G4</f>
         <v>0.95552931916568284</v>
       </c>
@@ -2052,7 +2052,7 @@
         <f t="shared" si="0"/>
         <v>0.9553325462416371</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0.9553325462416371</v>
       </c>
@@ -2077,7 +2077,7 @@
         <f t="shared" si="0"/>
         <v>0.95375836284927196</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0.95375836284927196</v>
       </c>
@@ -2102,7 +2102,7 @@
         <f t="shared" si="0"/>
         <v>0.95395513577331759</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>0.95395513577331759</v>
       </c>
@@ -2127,7 +2127,7 @@
         <f t="shared" si="0"/>
         <v>0.95198740653286107</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>0.95198740653286107</v>
       </c>
@@ -2152,7 +2152,7 @@
         <f t="shared" si="0"/>
         <v>0.95159386068476981</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>0.95159386068476981</v>
       </c>
@@ -2177,7 +2177,7 @@
         <f t="shared" si="0"/>
         <v>0.95021645021645018</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0.95021645021645018</v>
       </c>
@@ -2202,7 +2202,7 @@
         <f t="shared" si="0"/>
         <v>0.94864226682408503</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>0.94864226682408503</v>
       </c>
@@ -2227,19 +2227,19 @@
         <f t="shared" si="0"/>
         <v>0.94942935852026766</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>0.94942935852026766</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H13" s="5"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f>MAX(H3:H12)</f>
         <v>0.95789059425423062</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>1</v>
       </c>
     </row>
